--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="134">
   <si>
     <t>Name</t>
   </si>
@@ -355,9 +355,6 @@
     <t>https://turnertrackerqa.clearhub.tv/PFT.Clear.TurnerTrackerLongform/api-docs/index.html?url=/PFT.Clear.TurnerTrackerLongform/api-docs/swagger.json#/WorkOrder</t>
   </si>
   <si>
-    <t>121265-30</t>
-  </si>
-  <si>
     <t>O:\clear_test\1CHD6_m1.mov</t>
   </si>
   <si>
@@ -394,40 +391,43 @@
     <t>mail_Recipients</t>
   </si>
   <si>
+    <t>Mail_Id</t>
+  </si>
+  <si>
+    <t>Mail_Pwd</t>
+  </si>
+  <si>
+    <t>noreply-automation@primefocus.com</t>
+  </si>
+  <si>
+    <t>Automation@123</t>
+  </si>
+  <si>
+    <t>D:\International_Workflow\OM_Status_Check\Report\FinalReport.xlsx</t>
+  </si>
+  <si>
+    <t>mail_Body</t>
+  </si>
+  <si>
+    <t>Mail_Subject</t>
+  </si>
+  <si>
+    <t>Automation- International OM-Workflow Status</t>
+  </si>
+  <si>
+    <t>D:\International_Workflow\OM_Status_Check\Report\Mail_Attachment\FinalReport.xlsx</t>
+  </si>
+  <si>
+    <t>Report_attachment_path</t>
+  </si>
+  <si>
+    <t>Hi All,
+Please find the attached automation report.
+Regards,
+QA Team</t>
+  </si>
+  <si>
     <t>mansurabegum.tatwanagi@primefocus.com</t>
-  </si>
-  <si>
-    <t>Mail_Id</t>
-  </si>
-  <si>
-    <t>Mail_Pwd</t>
-  </si>
-  <si>
-    <t>noreply-automation@primefocus.com</t>
-  </si>
-  <si>
-    <t>Automation@123</t>
-  </si>
-  <si>
-    <t>D:\International_Workflow\OM_Status_Check\Report\FinalReport.xlsx</t>
-  </si>
-  <si>
-    <t>mail_Body</t>
-  </si>
-  <si>
-    <t>Mail_Subject</t>
-  </si>
-  <si>
-    <t>Automation- International OM-Workflow Status</t>
-  </si>
-  <si>
-    <t>Hi All, Please find the attached Automation report</t>
-  </si>
-  <si>
-    <t>D:\International_Workflow\OM_Status_Check\Report\Mail_Attachment\FinalReport.xlsx</t>
-  </si>
-  <si>
-    <t>Report_attachment_path</t>
   </si>
 </sst>
 </file>
@@ -797,8 +797,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -930,7 +930,7 @@
         <v>60</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
@@ -954,7 +954,7 @@
         <v>59</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
@@ -962,7 +962,7 @@
         <v>60</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
@@ -1538,28 +1538,28 @@
         <v>104</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B89" s="7" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B90" s="7" t="s">
         <v>132</v>
@@ -1567,26 +1567,26 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="6" t="s">
         <v>124</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B92" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,9 +1746,8 @@
     <hyperlink ref="B2" r:id="rId1"/>
     <hyperlink ref="B4" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3" location="/WorkOrder"/>
-    <hyperlink ref="B88" r:id="rId4"/>
-    <hyperlink ref="B91" r:id="rId5"/>
-    <hyperlink ref="B92" r:id="rId6"/>
+    <hyperlink ref="B91" r:id="rId4"/>
+    <hyperlink ref="B92" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1770,13 +1769,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1787,7 +1786,7 @@
         <v>58</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1813,16 +1812,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="D1" s="12" t="s">
         <v>118</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -1830,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>73</v>
